--- a/DW+P5+-+Modele+plan+tests+acceptation.xlsx
+++ b/DW+P5+-+Modele+plan+tests+acceptation.xlsx
@@ -76,7 +76,7 @@
     <t xml:space="preserve">Quand un article (respectant les conditions) arrive sur la page panier, l’utilisateur a une alerte lui proposant d’y accéder ou non</t>
   </si>
   <si>
-    <t xml:space="preserve">Une page panier montrant l’article avec l’image, le nom, la couleur, le prix la quantité et le bouton supprimer</t>
+    <t xml:space="preserve">Une page panier montrant l’article avec l’image, le nom, la couleur, le prix, la quantité et le bouton supprimer</t>
   </si>
   <si>
     <t xml:space="preserve">Ouvrir sur la page panier grâce à une redirection ou via un lien</t>
@@ -100,7 +100,7 @@
     <t xml:space="preserve">Suppression d’un produit sur la page panier</t>
   </si>
   <si>
-    <t xml:space="preserve">L’utilisateur peut désormais supprimer le produit qui le souhaite, le prix total sera actualisé et une alerte le notifiera </t>
+    <t xml:space="preserve">L’utilisateur peut désormais supprimer le produit qu’il souhaite, le prix total sera actualisé et une alerte le notifiera </t>
   </si>
   <si>
     <t xml:space="preserve">Les inputs du formulaire doivent être analysés et validés avant l’envoi à l’API</t>
@@ -118,7 +118,7 @@
     <t xml:space="preserve">Empêcher l’utilisateur de commander si le formulaire est non valide</t>
   </si>
   <si>
-    <t xml:space="preserve">Si l’utilisateur laisse vide le formulaire et il est mal rempli alors il sera bloqué sur la page avec un message d’alerte lui disant de remplir correctement le formulaire </t>
+    <t xml:space="preserve">Si l’utilisateur laisse vide le formulaire et/ou il est mal rempli alors il sera bloqué sur la page avec un message d’alerte lui disant de remplir correctement le formulaire </t>
   </si>
   <si>
     <t xml:space="preserve">Les données stockées en local ne sont pas sécurisées, l’utilisateur pourrait modifier lui-même les prix</t>
@@ -369,11 +369,15 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -391,51 +395,51 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -517,311 +521,311 @@
   </sheetPr>
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C30" activeCellId="0" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="60.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="58.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="57.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="29.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="60.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="58.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="57.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="29.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="1" width="14.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="74.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="n">
+      <c r="A2" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="n">
+    <row r="3" customFormat="false" ht="53.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="70.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="n">
+      <c r="A4" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="n">
+      <c r="E4" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="70.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="n">
+      <c r="E5" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="53.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="n">
+      <c r="E6" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="53.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="10" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="n">
+      <c r="E7" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="53.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="10" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9" t="n">
+      <c r="E8" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="70.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="10" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9" t="n">
+      <c r="E9" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="70.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="10" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9" t="n">
+      <c r="E10" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="53.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9" t="n">
+      <c r="E11" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="10" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="9" t="n">
+      <c r="E12" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="53.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="10" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="9" t="n">
+      <c r="E13" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="10" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="9"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="12"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="13"/>
     </row>
     <row r="16" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="9"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="12"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="13"/>
     </row>
     <row r="17" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="9"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="12"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="13"/>
     </row>
     <row r="18" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="9"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="12"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="13"/>
     </row>
     <row r="19" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="9"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="12"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="13"/>
     </row>
     <row r="20" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="9"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="12"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="13"/>
     </row>
     <row r="21" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="9"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="12"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="13"/>
     </row>
     <row r="22" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="13"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="16"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="17"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
